--- a/app/media/templates/contributions.xlsx
+++ b/app/media/templates/contributions.xlsx
@@ -273,19 +273,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,11 +632,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,107 +857,211 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
     </row>
-    <row r="4" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3">
+        <v>13</v>
+      </c>
+      <c r="N4" s="3">
+        <v>14</v>
+      </c>
+      <c r="O4" s="3">
+        <v>15</v>
+      </c>
+      <c r="P4" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>17</v>
+      </c>
+      <c r="R4" s="3">
+        <v>18</v>
+      </c>
+      <c r="S4" s="3">
+        <v>19</v>
+      </c>
+      <c r="T4" s="3">
+        <v>20</v>
+      </c>
+      <c r="U4" s="3">
+        <v>21</v>
+      </c>
+      <c r="V4" s="3">
+        <v>22</v>
+      </c>
+      <c r="W4" s="3">
+        <v>23</v>
+      </c>
+      <c r="X4" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
